--- a/medicine/Enfance/Lucy_Kurien/Lucy_Kurien.xlsx
+++ b/medicine/Enfance/Lucy_Kurien/Lucy_Kurien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lucy Kurien est une religieuse indienne de l'Ordre de la Sainte Croix (en). Elle est la fondatrice et directrice de Maher (en), une organisation communautaire et interconfessionnelle pour les femmes et les enfants maltraités et démunis, dont le siège se trouve à Pune, en Inde[1]. Elle reçoit, en 2016, le prix Nari Shakti Puraskar (en français : Prix du pouvoir des femmes)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucy Kurien est une religieuse indienne de l'Ordre de la Sainte Croix (en). Elle est la fondatrice et directrice de Maher (en), une organisation communautaire et interconfessionnelle pour les femmes et les enfants maltraités et démunis, dont le siège se trouve à Pune, en Inde. Elle reçoit, en 2016, le prix Nari Shakti Puraskar (en français : Prix du pouvoir des femmes).
 </t>
         </is>
       </c>
